--- a/biology/Botanique/Ananas_lucidus/Ananas_lucidus.xlsx
+++ b/biology/Botanique/Ananas_lucidus/Ananas_lucidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ananas lucidus est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 </t>
@@ -511,24 +523,26 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ananas bracamorensis (Linden) Antoine[1] ;
-Ananas erectifolius L.B.Sm.[1] ;
-Ananas glaber Mill.[1] ;
-Ananas mordilona (Linden) E.Morren[1] ;
-Ananas proliferus Baker[1] ;
-Ananas semiserratus (Willd.) Schult. &amp; Schult.f.[1] ;
-Ananassa bracamorensis Linden[1] ;
-Ananassa lucida (Mill.) Lindl.[1] ;
-Ananassa mordilona Linden[1] ;
-Ananassa semiserrata (Willd.) D.Dietr.[1] ;
-Bromelia glabra (Mill.) Schult. &amp; Schult.f.[1] ;
-Bromelia inermis Steud.[1] ;
-Bromelia lucida (Mill.) Willd.[1] ;
-Bromelia semiserrata Willd.[1] ;
-Bromelia subspinosa J.C.Wendl. ex Schult. &amp; Schult.f.[1] ;
+Ananas bracamorensis (Linden) Antoine ;
+Ananas erectifolius L.B.Sm. ;
+Ananas glaber Mill. ;
+Ananas mordilona (Linden) E.Morren ;
+Ananas proliferus Baker ;
+Ananas semiserratus (Willd.) Schult. &amp; Schult.f. ;
+Ananassa bracamorensis Linden ;
+Ananassa lucida (Mill.) Lindl. ;
+Ananassa mordilona Linden ;
+Ananassa semiserrata (Willd.) D.Dietr. ;
+Bromelia glabra (Mill.) Schult. &amp; Schult.f. ;
+Bromelia inermis Steud. ;
+Bromelia lucida (Mill.) Willd. ;
+Bromelia semiserrata Willd. ;
+Bromelia subspinosa J.C.Wendl. ex Schult. &amp; Schult.f. ;
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curaua est régulièrement employé pour désigner cette espèce, dont les fibres étaient utilisées pour produire des textiles grossiers et des câbles hautement résistants ; elles sont aussi utilisées dans des matériaux textiles composites[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curaua est régulièrement employé pour désigner cette espèce, dont les fibres étaient utilisées pour produire des textiles grossiers et des câbles hautement résistants ; elles sont aussi utilisées dans des matériaux textiles composites.
 </t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est largement répandue au nord et au nord-ouest de l'Amérique du Sud, notamment au Brésil, au Pérou, en Équateur, en Colombie, au Venezuela et en Guyane[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est largement répandue au nord et au nord-ouest de l'Amérique du Sud, notamment au Brésil, au Pérou, en Équateur, en Colombie, au Venezuela et en Guyane.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est hémicryptophyte[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
